--- a/biology/Virologie/Mimiviridae/Mimiviridae.xlsx
+++ b/biology/Virologie/Mimiviridae/Mimiviridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Mimiviridae sont une famille  de virus géants, la seule famille de l’ordre des Imitervirales. Des amibes et d'autres protistes en sont les hôtes naturels. La famille était divisée en quatre sous-familles[3],[4],[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Mimiviridae sont une famille  de virus géants, la seule famille de l’ordre des Imitervirales. Des amibes et d'autres protistes en sont les hôtes naturels. La famille était divisée en quatre sous-familles.
 </t>
         </is>
       </c>
